--- a/Data/Extracto2.xlsx
+++ b/Data/Extracto2.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oper4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Gerssss\IA\Hoteles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263AF2FE-C935-477B-A395-420E620D43CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00FB77-1F9D-4E60-BD40-21DD295207D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{826B6FE4-41F4-40F0-82C6-7D560F0E04C4}"/>
+    <workbookView xWindow="3220" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{826B6FE4-41F4-40F0-82C6-7D560F0E04C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2577,47 +2586,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BA &amp; Pampas"/>
-      <sheetName val="MESOP"/>
-      <sheetName val="Cordoba"/>
-      <sheetName val="NW"/>
-      <sheetName val="Wine C"/>
-      <sheetName val="Pat Cen"/>
-      <sheetName val="Pat NW"/>
-      <sheetName val="Glaciers"/>
-      <sheetName val="TdF"/>
-      <sheetName val="Modificaciones"/>
-      <sheetName val="VIRTUOSO 2025"/>
-      <sheetName val="TM 2025"/>
-      <sheetName val="BOP 2019"/>
-      <sheetName val="Antartida"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2917,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C3EB9-C277-42CD-B96A-0D36154DA426}">
   <dimension ref="A1:K279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
